--- a/Reports/LS/SPR_Compensation/SPR_Compensation.xlsx
+++ b/Reports/LS/SPR_Compensation/SPR_Compensation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Width</t>
   </si>
@@ -64,9 +64,6 @@
     <t>"Действительно проживает по адресу: ".$this-&gt;H['status_street']." ".$this-&gt;H['name_street']." д.".$this-&gt;H['house']." кв.".$this-&gt;H['room']</t>
   </si>
   <si>
-    <t>"Отапливаемая площадь (без учета бакона и лоджии) м. кв.".$this-&gt;H['area']</t>
-  </si>
-  <si>
     <t>Месяц Год</t>
   </si>
   <si>
@@ -100,7 +97,13 @@
     <t>$SUM_t1['summa']</t>
   </si>
   <si>
-    <t>"Дана ".$this-&gt;H['fam_LS']." ".$this-&gt;H['im_LS']." ".$this-&gt;H['ot_LS']." работнику \"ОАО УК КРУ\" в том что он(она)"</t>
+    <t xml:space="preserve">"Дана ".$this-&gt;H['fam_LS']." ".$this-&gt;H['im_LS']." ".$this-&gt;H['ot_LS']." работнику " </t>
+  </si>
+  <si>
+    <t>$this-&gt;H['name_organization']." в том что он(она)"</t>
+  </si>
+  <si>
+    <t>"Отапливаемая площадь (без учета бакона и лоджии) м. кв.".round($this-&gt;H['area'],2)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,11 +262,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,6 +345,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,7 +652,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C4"/>
@@ -675,225 +695,233 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="I7" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="N10" s="12">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="22"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3"/>
-      <c r="B16" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="3"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="6">
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="7">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="32" fitToHeight="500" orientation="portrait" r:id="rId1"/>

--- a/Reports/LS/SPR_Compensation/SPR_Compensation.xlsx
+++ b/Reports/LS/SPR_Compensation/SPR_Compensation.xlsx
@@ -103,7 +103,7 @@
     <t>$this-&gt;H['name_organization']." в том что он(она)"</t>
   </si>
   <si>
-    <t>"Отапливаемая площадь (без учета бакона и лоджии) м. кв.".round($this-&gt;H['area'],2)</t>
+    <t>"Отапливаемая площадь (без учета балкона и лоджии) м. кв.".round($this-&gt;H['area'],2)</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
